--- a/NBA salary_results.xlsx
+++ b/NBA salary_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hapham/Downloads/data science practice/Data-science-practice-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hapham/Downloads/data science practice/NBA-player-salary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B1A0DDE-9DB3-B84C-9309-1169B26DA185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65506EF1-6B9C-E941-821F-81ABFDBD586B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16080" xr2:uid="{A91FD124-A4C4-6E4D-8FC4-4B3EA45165F0}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16020" xr2:uid="{A91FD124-A4C4-6E4D-8FC4-4B3EA45165F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,49 +33,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Models</t>
   </si>
   <si>
-    <t>Train error</t>
-  </si>
-  <si>
-    <t>Test error</t>
-  </si>
-  <si>
     <t>Linear Regression</t>
   </si>
   <si>
     <t xml:space="preserve">Ridge </t>
   </si>
   <si>
-    <t>KNN (n=5)</t>
-  </si>
-  <si>
     <t>Decision Tree</t>
   </si>
   <si>
-    <t>Decision Tree (max_depth=4)</t>
-  </si>
-  <si>
-    <t>Random Forest(n_estimators=10, max_depth=5)</t>
-  </si>
-  <si>
-    <t>Random forst('max_depth': 5, 'max_features': 'log2', 'n_estimators': 70)</t>
-  </si>
-  <si>
-    <t>Gradient boosting</t>
-  </si>
-  <si>
-    <t>GradientBoostingRegressor(max_features='sqrt', n_estimators=60)</t>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>n=3</t>
+  </si>
+  <si>
+    <t>max_depth=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNN </t>
+  </si>
+  <si>
+    <t>max_depth= 6, max_features= log2, n_estimators= 90</t>
+  </si>
+  <si>
+    <t>max_features='sqrt', learning_rate=0.05, n_estimators=100</t>
+  </si>
+  <si>
+    <t>Train_error</t>
+  </si>
+  <si>
+    <t>Test_error</t>
+  </si>
+  <si>
+    <t>Random forst</t>
+  </si>
+  <si>
+    <t>GradientBoostingRegressor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,6 +99,12 @@
     <font>
       <sz val="14"/>
       <color rgb="FF303F9F"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="1"/>
     </font>
@@ -117,11 +129,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA7A94E-E2C8-774C-BC63-71B514DD70A8}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,20 +463,23 @@
     <col min="4" max="4" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>1.69</v>
@@ -472,102 +488,84 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="C3" s="2">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.83</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>1.99</v>
-      </c>
-      <c r="C4" s="2">
+    </row>
+    <row r="5" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="C5" s="2">
         <v>2.54</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
+    </row>
+    <row r="6" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="C6" s="2">
-        <v>2.54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="7" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="B7" s="2">
-        <v>1.27</v>
+        <v>0.73</v>
       </c>
       <c r="C7" s="2">
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+        <v>2.17</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
-        <v>1.17</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.4500000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.61</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2.2799999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="8" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:4" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -581,9 +579,6 @@
     <row r="27" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
